--- a/data_prediction.xlsx
+++ b/data_prediction.xlsx
@@ -1664,22 +1664,22 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -3124,7 +3124,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3864,12 +3864,12 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -4146,17 +4146,17 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -4803,22 +4803,22 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
@@ -4876,22 +4876,22 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
@@ -6122,12 +6122,12 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6706,12 +6706,12 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
     </row>
@@ -7874,7 +7874,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
     </row>
@@ -8098,7 +8098,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
@@ -8234,7 +8234,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -8249,7 +8249,7 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
@@ -8322,7 +8322,7 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
@@ -8604,12 +8604,12 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -9850,7 +9850,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -10142,7 +10142,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
@@ -10225,7 +10225,7 @@
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
     </row>
@@ -10736,7 +10736,7 @@
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
     </row>
@@ -10935,7 +10935,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -10945,7 +10945,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -11227,12 +11227,12 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11242,7 +11242,7 @@
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
@@ -11524,12 +11524,12 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P152" t="inlineStr">
@@ -11539,7 +11539,7 @@
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
     </row>
@@ -11597,12 +11597,12 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P153" t="inlineStr">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -12123,7 +12123,7 @@
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
     </row>
@@ -12468,7 +12468,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
@@ -12478,7 +12478,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P165" t="inlineStr">
@@ -12833,7 +12833,7 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
@@ -13218,7 +13218,7 @@
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
     </row>
@@ -13417,7 +13417,7 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
@@ -14371,7 +14371,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -14381,7 +14381,7 @@
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q191" t="inlineStr">
@@ -14819,7 +14819,7 @@
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q197" t="inlineStr">
@@ -14960,12 +14960,12 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q199" t="inlineStr">
@@ -15466,7 +15466,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -15476,7 +15476,7 @@
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q206" t="inlineStr">
@@ -16410,7 +16410,7 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N219" t="inlineStr">
@@ -16498,7 +16498,7 @@
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q220" t="inlineStr">
@@ -17004,7 +17004,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P227" t="inlineStr">
@@ -17213,7 +17213,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
@@ -17233,7 +17233,7 @@
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17286,7 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
@@ -17505,12 +17505,12 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -17578,7 +17578,7 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N235" t="inlineStr">
@@ -17593,7 +17593,7 @@
       </c>
       <c r="P235" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q235" t="inlineStr">
@@ -17724,7 +17724,7 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
@@ -17739,7 +17739,7 @@
       </c>
       <c r="P237" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q237" t="inlineStr">
@@ -18094,12 +18094,12 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P242" t="inlineStr">
@@ -18250,7 +18250,7 @@
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q244" t="inlineStr">
@@ -18323,7 +18323,7 @@
       </c>
       <c r="P245" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q245" t="inlineStr">
@@ -18396,7 +18396,7 @@
       </c>
       <c r="P246" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q246" t="inlineStr">
@@ -18620,7 +18620,7 @@
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
     </row>
@@ -18839,7 +18839,7 @@
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
     </row>
@@ -19048,12 +19048,12 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P255" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q255" t="inlineStr">
@@ -19403,7 +19403,7 @@
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N260" t="inlineStr">
@@ -19413,7 +19413,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P260" t="inlineStr">
@@ -19496,7 +19496,7 @@
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
     </row>
@@ -19783,7 +19783,7 @@
       </c>
       <c r="P265" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q265" t="inlineStr">
@@ -19914,12 +19914,12 @@
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -20060,7 +20060,7 @@
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="N269" t="inlineStr">
@@ -20498,7 +20498,7 @@
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N275" t="inlineStr">
@@ -20576,7 +20576,7 @@
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -20644,12 +20644,12 @@
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -20659,7 +20659,7 @@
       </c>
       <c r="P277" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q277" t="inlineStr">
@@ -20863,12 +20863,12 @@
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20878,7 +20878,7 @@
       </c>
       <c r="P280" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q280" t="inlineStr">
@@ -21014,7 +21014,7 @@
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -21024,7 +21024,7 @@
       </c>
       <c r="P282" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q282" t="inlineStr">
@@ -21165,7 +21165,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P284" t="inlineStr">
@@ -21175,7 +21175,7 @@
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
     </row>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N285" t="inlineStr">
@@ -21311,7 +21311,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P286" t="inlineStr">
@@ -21452,12 +21452,12 @@
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P288" t="inlineStr">
@@ -21525,7 +21525,7 @@
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21535,12 +21535,12 @@
       </c>
       <c r="P289" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
     </row>
@@ -21817,7 +21817,7 @@
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21958,7 +21958,7 @@
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N295" t="inlineStr">
@@ -21973,7 +21973,7 @@
       </c>
       <c r="P295" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q295" t="inlineStr">
@@ -22031,7 +22031,7 @@
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N296" t="inlineStr">
@@ -22260,7 +22260,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P299" t="inlineStr">
@@ -22396,7 +22396,7 @@
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N301" t="inlineStr">
@@ -22411,7 +22411,7 @@
       </c>
       <c r="P301" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q301" t="inlineStr">
@@ -22547,7 +22547,7 @@
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -22849,7 +22849,7 @@
       </c>
       <c r="P307" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q307" t="inlineStr">
@@ -22980,7 +22980,7 @@
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="N309" t="inlineStr">
@@ -22990,7 +22990,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P309" t="inlineStr">
@@ -23126,7 +23126,7 @@
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="N311" t="inlineStr">
@@ -23141,7 +23141,7 @@
       </c>
       <c r="P311" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q311" t="inlineStr">
@@ -23496,12 +23496,12 @@
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P316" t="inlineStr">
@@ -23564,7 +23564,7 @@
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N317" t="inlineStr">
@@ -23579,7 +23579,7 @@
       </c>
       <c r="P317" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q317" t="inlineStr">
@@ -23647,7 +23647,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P318" t="inlineStr">
@@ -23710,12 +23710,12 @@
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -23725,7 +23725,7 @@
       </c>
       <c r="P319" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q319" t="inlineStr">
@@ -24022,7 +24022,7 @@
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
     </row>
@@ -24075,7 +24075,7 @@
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N324" t="inlineStr">
@@ -24090,7 +24090,7 @@
       </c>
       <c r="P324" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q324" t="inlineStr">
@@ -24221,7 +24221,7 @@
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N326" t="inlineStr">
@@ -24231,12 +24231,12 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P326" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q326" t="inlineStr">
@@ -24377,12 +24377,12 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P328" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q328" t="inlineStr">
@@ -24596,12 +24596,12 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P331" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q331" t="inlineStr">
@@ -24664,7 +24664,7 @@
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -25097,17 +25097,17 @@
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P338" t="inlineStr">
@@ -25175,7 +25175,7 @@
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -25243,7 +25243,7 @@
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N340" t="inlineStr">
@@ -25258,7 +25258,7 @@
       </c>
       <c r="P340" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q340" t="inlineStr">
@@ -25321,7 +25321,7 @@
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
@@ -25394,12 +25394,12 @@
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P342" t="inlineStr">
@@ -25462,7 +25462,7 @@
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="N343" t="inlineStr">
@@ -25477,7 +25477,7 @@
       </c>
       <c r="P343" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q343" t="inlineStr">
@@ -25613,12 +25613,12 @@
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P345" t="inlineStr">
@@ -25681,7 +25681,7 @@
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N346" t="inlineStr">
@@ -25691,12 +25691,12 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P346" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q346" t="inlineStr">
@@ -25832,7 +25832,7 @@
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
@@ -25842,7 +25842,7 @@
       </c>
       <c r="P348" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q348" t="inlineStr">
@@ -26061,7 +26061,7 @@
       </c>
       <c r="P351" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q351" t="inlineStr">
@@ -26192,12 +26192,12 @@
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -26207,7 +26207,7 @@
       </c>
       <c r="P353" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q353" t="inlineStr">
@@ -26270,12 +26270,12 @@
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P354" t="inlineStr">
@@ -26353,7 +26353,7 @@
       </c>
       <c r="P355" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q355" t="inlineStr">
@@ -26411,12 +26411,12 @@
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
@@ -26426,12 +26426,12 @@
       </c>
       <c r="P356" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
     </row>
@@ -26572,7 +26572,7 @@
       </c>
       <c r="P358" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q358" t="inlineStr">
@@ -26635,17 +26635,17 @@
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P359" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q359" t="inlineStr">
@@ -26791,7 +26791,7 @@
       </c>
       <c r="P361" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q361" t="inlineStr">
@@ -27010,7 +27010,7 @@
       </c>
       <c r="P364" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q364" t="inlineStr">
@@ -27073,7 +27073,7 @@
       </c>
       <c r="N365" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
@@ -27433,7 +27433,7 @@
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N370" t="inlineStr">
@@ -27443,7 +27443,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P370" t="inlineStr">
@@ -27657,7 +27657,7 @@
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
@@ -28032,7 +28032,7 @@
       </c>
       <c r="P378" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q378" t="inlineStr">
@@ -28241,7 +28241,7 @@
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -28251,7 +28251,7 @@
       </c>
       <c r="P381" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q381" t="inlineStr">
@@ -28314,12 +28314,12 @@
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P382" t="inlineStr">
@@ -28543,7 +28543,7 @@
       </c>
       <c r="P385" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q385" t="inlineStr">
@@ -28601,12 +28601,12 @@
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -28689,7 +28689,7 @@
       </c>
       <c r="P387" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q387" t="inlineStr">
@@ -28971,12 +28971,12 @@
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P391" t="inlineStr">
@@ -29039,7 +29039,7 @@
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="N392" t="inlineStr">
@@ -29054,7 +29054,7 @@
       </c>
       <c r="P392" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q392" t="inlineStr">
@@ -29117,7 +29117,7 @@
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -29273,7 +29273,7 @@
       </c>
       <c r="P395" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q395" t="inlineStr">
@@ -29336,12 +29336,12 @@
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P396" t="inlineStr">
@@ -29482,12 +29482,12 @@
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P398" t="inlineStr">
@@ -30426,7 +30426,7 @@
       </c>
       <c r="M411" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N411" t="inlineStr">
@@ -30436,7 +30436,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P411" t="inlineStr">
@@ -30645,7 +30645,7 @@
       </c>
       <c r="M414" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N414" t="inlineStr">
@@ -30655,12 +30655,12 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P414" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q414" t="inlineStr">
@@ -30723,12 +30723,12 @@
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P415" t="inlineStr">
@@ -31010,7 +31010,7 @@
       </c>
       <c r="M419" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="N419" t="inlineStr">
@@ -31229,17 +31229,17 @@
       </c>
       <c r="M422" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P422" t="inlineStr">
@@ -31307,12 +31307,12 @@
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P423" t="inlineStr">
@@ -31594,7 +31594,7 @@
       </c>
       <c r="M427" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N427" t="inlineStr">
@@ -31760,7 +31760,7 @@
       </c>
       <c r="Q429" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
     </row>
@@ -32037,7 +32037,7 @@
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
@@ -32047,7 +32047,7 @@
       </c>
       <c r="P433" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q433" t="inlineStr">
@@ -32256,7 +32256,7 @@
       </c>
       <c r="N436" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O436" t="inlineStr">
@@ -32402,7 +32402,7 @@
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
@@ -32913,7 +32913,7 @@
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
@@ -33147,7 +33147,7 @@
       </c>
       <c r="Q448" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
     </row>
@@ -33356,12 +33356,12 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P451" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q451" t="inlineStr">
@@ -33492,7 +33492,7 @@
       </c>
       <c r="M453" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="N453" t="inlineStr">
@@ -33580,7 +33580,7 @@
       </c>
       <c r="P454" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q454" t="inlineStr">
@@ -33643,12 +33643,12 @@
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P455" t="inlineStr">
@@ -33789,7 +33789,7 @@
       </c>
       <c r="N457" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
@@ -33799,7 +33799,7 @@
       </c>
       <c r="P457" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q457" t="inlineStr">
@@ -34305,12 +34305,12 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P464" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q464" t="inlineStr">
@@ -34451,7 +34451,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P466" t="inlineStr">
@@ -34514,22 +34514,22 @@
       </c>
       <c r="M467" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P467" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q467" t="inlineStr">
@@ -34670,7 +34670,7 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P469" t="inlineStr">
@@ -34816,7 +34816,7 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P471" t="inlineStr">
@@ -35171,12 +35171,12 @@
       </c>
       <c r="M476" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
@@ -35186,7 +35186,7 @@
       </c>
       <c r="P476" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q476" t="inlineStr">
@@ -35244,22 +35244,22 @@
       </c>
       <c r="M477" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P477" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q477" t="inlineStr">
@@ -35327,7 +35327,7 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P478" t="inlineStr">
@@ -35337,7 +35337,7 @@
       </c>
       <c r="Q478" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
     </row>
@@ -35463,12 +35463,12 @@
       </c>
       <c r="M480" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="N480" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="O480" t="inlineStr">
@@ -35478,7 +35478,7 @@
       </c>
       <c r="P480" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="Q480" t="inlineStr">
@@ -35697,7 +35697,7 @@
       </c>
       <c r="P483" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q483" t="inlineStr">
@@ -35828,7 +35828,7 @@
       </c>
       <c r="M485" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="N485" t="inlineStr">
@@ -35838,7 +35838,7 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>Highly &amp; moderately toxic</t>
+          <t>Slightly toxic &amp; relatively nontoxic</t>
         </is>
       </c>
       <c r="P485" t="inlineStr">
@@ -36339,7 +36339,7 @@
       </c>
       <c r="M492" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="N492" t="inlineStr">
@@ -36349,12 +36349,12 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="P492" t="inlineStr">
         <is>
-          <t>Slightly toxic &amp; relatively nontoxic</t>
+          <t>Highly &amp; moderately toxic</t>
         </is>
       </c>
       <c r="Q492" t="inlineStr">
